--- a/data/microscopy/Phase.Contrast/microbeJ_results/cases_microbeJ.xlsx
+++ b/data/microscopy/Phase.Contrast/microbeJ_results/cases_microbeJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\Mycoplasma\Experiments\data\microscopy\microbeJ_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\microscopy\Phase.Contrast\microbeJ_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386D705-1A07-4986-BA0C-623BF970BB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4BF8D-2AF1-4BF7-BBA5-8DBE5F8A96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18075" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,11 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N409"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J409"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P311" sqref="P311:S311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,6 +5104,10 @@
       <c r="J132">
         <v>8299</v>
       </c>
+      <c r="K132">
+        <f>_xlfn.STDEV.S(D84:D131)/SQRT(COUNT(D84:D131))</f>
+        <v>2.3332403009614262E-2</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -13445,7 +13449,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>22</v>
       </c>
@@ -13480,7 +13484,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>22</v>
       </c>
@@ -13515,7 +13519,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>22</v>
       </c>
@@ -13550,7 +13554,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -13585,7 +13589,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>22</v>
       </c>
@@ -13620,7 +13624,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>22</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>22</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>22</v>
       </c>
@@ -13725,7 +13729,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>22</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>22</v>
       </c>
@@ -13810,8 +13814,12 @@
         <f>AVERAGE(G340:G378)</f>
         <v>149.66666666666666</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P378">
+        <f>AVERAGE(D170:D378)</f>
+        <v>1.0027918755922778</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -13846,7 +13854,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>22</v>
       </c>
@@ -13881,7 +13889,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>22</v>
       </c>
@@ -13916,7 +13924,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>22</v>
       </c>
@@ -13951,7 +13959,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>22</v>
       </c>
@@ -13986,7 +13994,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>22</v>
       </c>
@@ -14910,6 +14918,18 @@
       <c r="N409">
         <f>AVERAGE(G379:G409)</f>
         <v>66.91935483870968</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K410">
+        <f>_xlfn.STDEV.S(D379:D409)/SQRT(COUNT(D379:D409))</f>
+        <v>2.8012853577035667E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K412">
+        <f>AVERAGE(K243,K311,K339,K378)</f>
+        <v>0.9914147036630363</v>
       </c>
     </row>
   </sheetData>
